--- a/Database/Data/State.xlsx
+++ b/Database/Data/State.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6810" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6810" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="States" sheetId="6" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="1014">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="1012">
   <si>
     <t>Guy Palumbo</t>
   </si>
@@ -829,12 +829,6 @@
   </si>
   <si>
     <t>Syl.Wiles@leg.wa.gov</t>
-  </si>
-  <si>
-    <t>Janie Murphy</t>
-  </si>
-  <si>
-    <t>Janie.Murphy@leg.wa.gov</t>
   </si>
   <si>
     <t>JLOB 317</t>
@@ -5706,10 +5700,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L99"/>
+  <dimension ref="A1:J99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5717,7 +5711,7 @@
     <col min="1" max="1" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>180</v>
       </c>
@@ -5749,7 +5743,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -5781,7 +5775,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>194</v>
       </c>
@@ -5813,7 +5807,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -5845,7 +5839,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -5877,7 +5871,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>211</v>
       </c>
@@ -5909,7 +5903,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>217</v>
       </c>
@@ -5941,7 +5935,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>223</v>
       </c>
@@ -5973,7 +5967,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -6005,7 +5999,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -6037,7 +6031,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>58</v>
       </c>
@@ -6069,7 +6063,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -6101,7 +6095,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>249</v>
       </c>
@@ -6133,7 +6127,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>255</v>
       </c>
@@ -6165,7 +6159,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>261</v>
       </c>
@@ -6196,14 +6190,8 @@
       <c r="J15" t="s">
         <v>266</v>
       </c>
-      <c r="K15" t="s">
-        <v>267</v>
-      </c>
-      <c r="L15" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -6217,22 +6205,22 @@
         <v>2</v>
       </c>
       <c r="E16" t="s">
+        <v>267</v>
+      </c>
+      <c r="F16" t="s">
+        <v>268</v>
+      </c>
+      <c r="G16" t="s">
         <v>269</v>
-      </c>
-      <c r="F16" t="s">
-        <v>270</v>
-      </c>
-      <c r="G16" t="s">
-        <v>271</v>
       </c>
       <c r="H16" t="s">
         <v>191</v>
       </c>
       <c r="I16" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J16" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -6249,27 +6237,27 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
+        <v>272</v>
+      </c>
+      <c r="F17" t="s">
+        <v>273</v>
+      </c>
+      <c r="G17" t="s">
         <v>274</v>
-      </c>
-      <c r="F17" t="s">
-        <v>275</v>
-      </c>
-      <c r="G17" t="s">
-        <v>276</v>
       </c>
       <c r="H17" t="s">
         <v>191</v>
       </c>
       <c r="I17" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J17" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B18" t="s">
         <v>195</v>
@@ -6281,22 +6269,22 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
+        <v>278</v>
+      </c>
+      <c r="F18" t="s">
+        <v>279</v>
+      </c>
+      <c r="G18" t="s">
         <v>280</v>
-      </c>
-      <c r="F18" t="s">
-        <v>281</v>
-      </c>
-      <c r="G18" t="s">
-        <v>282</v>
       </c>
       <c r="H18" t="s">
         <v>191</v>
       </c>
       <c r="I18" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="J18" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -6313,22 +6301,22 @@
         <v>2</v>
       </c>
       <c r="E19" t="s">
+        <v>283</v>
+      </c>
+      <c r="F19" t="s">
+        <v>284</v>
+      </c>
+      <c r="G19" t="s">
         <v>285</v>
-      </c>
-      <c r="F19" t="s">
-        <v>286</v>
-      </c>
-      <c r="G19" t="s">
-        <v>287</v>
       </c>
       <c r="H19" t="s">
         <v>191</v>
       </c>
       <c r="I19" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="J19" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -6345,22 +6333,22 @@
         <v>2</v>
       </c>
       <c r="E20" t="s">
+        <v>288</v>
+      </c>
+      <c r="F20" t="s">
+        <v>289</v>
+      </c>
+      <c r="G20" t="s">
         <v>290</v>
-      </c>
-      <c r="F20" t="s">
-        <v>291</v>
-      </c>
-      <c r="G20" t="s">
-        <v>292</v>
       </c>
       <c r="H20" t="s">
         <v>191</v>
       </c>
       <c r="I20" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="J20" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -6377,22 +6365,22 @@
         <v>2</v>
       </c>
       <c r="E21" t="s">
+        <v>293</v>
+      </c>
+      <c r="F21" t="s">
+        <v>294</v>
+      </c>
+      <c r="G21" t="s">
         <v>295</v>
-      </c>
-      <c r="F21" t="s">
-        <v>296</v>
-      </c>
-      <c r="G21" t="s">
-        <v>297</v>
       </c>
       <c r="H21" t="s">
         <v>191</v>
       </c>
       <c r="I21" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J21" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -6409,22 +6397,22 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
+        <v>298</v>
+      </c>
+      <c r="F22" t="s">
+        <v>299</v>
+      </c>
+      <c r="G22" t="s">
         <v>300</v>
-      </c>
-      <c r="F22" t="s">
-        <v>301</v>
-      </c>
-      <c r="G22" t="s">
-        <v>302</v>
       </c>
       <c r="H22" t="s">
         <v>191</v>
       </c>
       <c r="I22" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J22" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -6441,27 +6429,27 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
+        <v>303</v>
+      </c>
+      <c r="F23" t="s">
+        <v>304</v>
+      </c>
+      <c r="G23" t="s">
         <v>305</v>
-      </c>
-      <c r="F23" t="s">
-        <v>306</v>
-      </c>
-      <c r="G23" t="s">
-        <v>307</v>
       </c>
       <c r="H23" t="s">
         <v>191</v>
       </c>
       <c r="I23" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="J23" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B24" t="s">
         <v>195</v>
@@ -6473,22 +6461,22 @@
         <v>2</v>
       </c>
       <c r="E24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F24" t="s">
+        <v>310</v>
+      </c>
+      <c r="G24" t="s">
         <v>311</v>
-      </c>
-      <c r="F24" t="s">
-        <v>312</v>
-      </c>
-      <c r="G24" t="s">
-        <v>313</v>
       </c>
       <c r="H24" t="s">
         <v>191</v>
       </c>
       <c r="I24" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="J24" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -6505,27 +6493,27 @@
         <v>2</v>
       </c>
       <c r="E25" t="s">
+        <v>314</v>
+      </c>
+      <c r="F25" t="s">
+        <v>315</v>
+      </c>
+      <c r="G25" t="s">
         <v>316</v>
-      </c>
-      <c r="F25" t="s">
-        <v>317</v>
-      </c>
-      <c r="G25" t="s">
-        <v>318</v>
       </c>
       <c r="H25" t="s">
         <v>191</v>
       </c>
       <c r="I25" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="J25" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B26" t="s">
         <v>195</v>
@@ -6537,27 +6525,27 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
+        <v>320</v>
+      </c>
+      <c r="F26" t="s">
+        <v>321</v>
+      </c>
+      <c r="G26" t="s">
         <v>322</v>
-      </c>
-      <c r="F26" t="s">
-        <v>323</v>
-      </c>
-      <c r="G26" t="s">
-        <v>324</v>
       </c>
       <c r="H26" t="s">
         <v>191</v>
       </c>
       <c r="I26" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="J26" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B27" t="s">
         <v>195</v>
@@ -6569,22 +6557,22 @@
         <v>2</v>
       </c>
       <c r="E27" t="s">
+        <v>326</v>
+      </c>
+      <c r="F27" t="s">
+        <v>327</v>
+      </c>
+      <c r="G27" t="s">
         <v>328</v>
-      </c>
-      <c r="F27" t="s">
-        <v>329</v>
-      </c>
-      <c r="G27" t="s">
-        <v>330</v>
       </c>
       <c r="H27" t="s">
         <v>191</v>
       </c>
       <c r="I27" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J27" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -6601,27 +6589,27 @@
         <v>2</v>
       </c>
       <c r="E28" t="s">
+        <v>331</v>
+      </c>
+      <c r="F28" t="s">
+        <v>332</v>
+      </c>
+      <c r="G28" t="s">
         <v>333</v>
-      </c>
-      <c r="F28" t="s">
-        <v>334</v>
-      </c>
-      <c r="G28" t="s">
-        <v>335</v>
       </c>
       <c r="H28" t="s">
         <v>191</v>
       </c>
       <c r="I28" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="J28" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B29" t="s">
         <v>195</v>
@@ -6633,27 +6621,27 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
+        <v>337</v>
+      </c>
+      <c r="F29" t="s">
+        <v>338</v>
+      </c>
+      <c r="G29" t="s">
         <v>339</v>
-      </c>
-      <c r="F29" t="s">
-        <v>340</v>
-      </c>
-      <c r="G29" t="s">
-        <v>341</v>
       </c>
       <c r="H29" t="s">
         <v>191</v>
       </c>
       <c r="I29" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J29" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B30" t="s">
         <v>195</v>
@@ -6665,27 +6653,27 @@
         <v>2</v>
       </c>
       <c r="E30" t="s">
+        <v>343</v>
+      </c>
+      <c r="F30" t="s">
+        <v>344</v>
+      </c>
+      <c r="G30" t="s">
         <v>345</v>
-      </c>
-      <c r="F30" t="s">
-        <v>346</v>
-      </c>
-      <c r="G30" t="s">
-        <v>347</v>
       </c>
       <c r="H30" t="s">
         <v>191</v>
       </c>
       <c r="I30" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="J30" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B31" t="s">
         <v>195</v>
@@ -6697,27 +6685,27 @@
         <v>2</v>
       </c>
       <c r="E31" t="s">
+        <v>349</v>
+      </c>
+      <c r="F31" t="s">
+        <v>350</v>
+      </c>
+      <c r="G31" t="s">
         <v>351</v>
-      </c>
-      <c r="F31" t="s">
-        <v>352</v>
-      </c>
-      <c r="G31" t="s">
-        <v>353</v>
       </c>
       <c r="H31" t="s">
         <v>191</v>
       </c>
       <c r="I31" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="J31" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B32" t="s">
         <v>195</v>
@@ -6729,27 +6717,27 @@
         <v>2</v>
       </c>
       <c r="E32" t="s">
+        <v>355</v>
+      </c>
+      <c r="F32" t="s">
+        <v>356</v>
+      </c>
+      <c r="G32" t="s">
         <v>357</v>
-      </c>
-      <c r="F32" t="s">
-        <v>358</v>
-      </c>
-      <c r="G32" t="s">
-        <v>359</v>
       </c>
       <c r="H32" t="s">
         <v>191</v>
       </c>
       <c r="I32" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="J32" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B33" t="s">
         <v>195</v>
@@ -6761,22 +6749,22 @@
         <v>2</v>
       </c>
       <c r="E33" t="s">
+        <v>361</v>
+      </c>
+      <c r="F33" t="s">
+        <v>362</v>
+      </c>
+      <c r="G33" t="s">
         <v>363</v>
-      </c>
-      <c r="F33" t="s">
-        <v>364</v>
-      </c>
-      <c r="G33" t="s">
-        <v>365</v>
       </c>
       <c r="H33" t="s">
         <v>191</v>
       </c>
       <c r="I33" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="J33" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -6793,27 +6781,27 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
+        <v>366</v>
+      </c>
+      <c r="F34" t="s">
+        <v>367</v>
+      </c>
+      <c r="G34" t="s">
         <v>368</v>
-      </c>
-      <c r="F34" t="s">
-        <v>369</v>
-      </c>
-      <c r="G34" t="s">
-        <v>370</v>
       </c>
       <c r="H34" t="s">
         <v>191</v>
       </c>
       <c r="I34" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="J34" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B35" t="s">
         <v>195</v>
@@ -6825,27 +6813,27 @@
         <v>2</v>
       </c>
       <c r="E35" t="s">
+        <v>372</v>
+      </c>
+      <c r="F35" t="s">
+        <v>373</v>
+      </c>
+      <c r="G35" t="s">
         <v>374</v>
-      </c>
-      <c r="F35" t="s">
-        <v>375</v>
-      </c>
-      <c r="G35" t="s">
-        <v>376</v>
       </c>
       <c r="H35" t="s">
         <v>191</v>
       </c>
       <c r="I35" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="J35" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B36" t="s">
         <v>195</v>
@@ -6857,22 +6845,22 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
+        <v>378</v>
+      </c>
+      <c r="F36" t="s">
+        <v>379</v>
+      </c>
+      <c r="G36" t="s">
         <v>380</v>
-      </c>
-      <c r="F36" t="s">
-        <v>381</v>
-      </c>
-      <c r="G36" t="s">
-        <v>382</v>
       </c>
       <c r="H36" t="s">
         <v>191</v>
       </c>
       <c r="I36" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="J36" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -6889,27 +6877,27 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
+        <v>383</v>
+      </c>
+      <c r="F37" t="s">
+        <v>384</v>
+      </c>
+      <c r="G37" t="s">
         <v>385</v>
-      </c>
-      <c r="F37" t="s">
-        <v>386</v>
-      </c>
-      <c r="G37" t="s">
-        <v>387</v>
       </c>
       <c r="H37" t="s">
         <v>191</v>
       </c>
       <c r="I37" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="J37" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B38" t="s">
         <v>195</v>
@@ -6921,22 +6909,22 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
+        <v>389</v>
+      </c>
+      <c r="F38" t="s">
+        <v>390</v>
+      </c>
+      <c r="G38" t="s">
         <v>391</v>
-      </c>
-      <c r="F38" t="s">
-        <v>392</v>
-      </c>
-      <c r="G38" t="s">
-        <v>393</v>
       </c>
       <c r="H38" t="s">
         <v>191</v>
       </c>
       <c r="I38" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="J38" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -6953,22 +6941,22 @@
         <v>2</v>
       </c>
       <c r="E39" t="s">
+        <v>394</v>
+      </c>
+      <c r="F39" t="s">
+        <v>395</v>
+      </c>
+      <c r="G39" t="s">
         <v>396</v>
-      </c>
-      <c r="F39" t="s">
-        <v>397</v>
-      </c>
-      <c r="G39" t="s">
-        <v>398</v>
       </c>
       <c r="H39" t="s">
         <v>191</v>
       </c>
       <c r="I39" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J39" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -6985,22 +6973,22 @@
         <v>2</v>
       </c>
       <c r="E40" t="s">
+        <v>399</v>
+      </c>
+      <c r="F40" t="s">
+        <v>400</v>
+      </c>
+      <c r="G40" t="s">
         <v>401</v>
-      </c>
-      <c r="F40" t="s">
-        <v>402</v>
-      </c>
-      <c r="G40" t="s">
-        <v>403</v>
       </c>
       <c r="H40" t="s">
         <v>191</v>
       </c>
       <c r="I40" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="J40" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -7017,27 +7005,27 @@
         <v>2</v>
       </c>
       <c r="E41" t="s">
+        <v>404</v>
+      </c>
+      <c r="F41" t="s">
+        <v>405</v>
+      </c>
+      <c r="G41" t="s">
         <v>406</v>
-      </c>
-      <c r="F41" t="s">
-        <v>407</v>
-      </c>
-      <c r="G41" t="s">
-        <v>408</v>
       </c>
       <c r="H41" t="s">
         <v>191</v>
       </c>
       <c r="I41" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="J41" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B42" t="s">
         <v>195</v>
@@ -7049,22 +7037,22 @@
         <v>1</v>
       </c>
       <c r="E42" t="s">
+        <v>410</v>
+      </c>
+      <c r="F42" t="s">
+        <v>411</v>
+      </c>
+      <c r="G42" t="s">
         <v>412</v>
-      </c>
-      <c r="F42" t="s">
-        <v>413</v>
-      </c>
-      <c r="G42" t="s">
-        <v>414</v>
       </c>
       <c r="H42" t="s">
         <v>191</v>
       </c>
       <c r="I42" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="J42" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -7081,27 +7069,27 @@
         <v>2</v>
       </c>
       <c r="E43" t="s">
+        <v>415</v>
+      </c>
+      <c r="F43" t="s">
+        <v>416</v>
+      </c>
+      <c r="G43" t="s">
         <v>417</v>
-      </c>
-      <c r="F43" t="s">
-        <v>418</v>
-      </c>
-      <c r="G43" t="s">
-        <v>419</v>
       </c>
       <c r="H43" t="s">
         <v>191</v>
       </c>
       <c r="I43" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="J43" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B44" t="s">
         <v>195</v>
@@ -7113,27 +7101,27 @@
         <v>2</v>
       </c>
       <c r="E44" t="s">
+        <v>421</v>
+      </c>
+      <c r="F44" t="s">
+        <v>422</v>
+      </c>
+      <c r="G44" t="s">
         <v>423</v>
-      </c>
-      <c r="F44" t="s">
-        <v>424</v>
-      </c>
-      <c r="G44" t="s">
-        <v>425</v>
       </c>
       <c r="H44" t="s">
         <v>191</v>
       </c>
       <c r="I44" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="J44" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B45" t="s">
         <v>195</v>
@@ -7145,27 +7133,27 @@
         <v>1</v>
       </c>
       <c r="E45" t="s">
+        <v>427</v>
+      </c>
+      <c r="F45" t="s">
+        <v>428</v>
+      </c>
+      <c r="G45" t="s">
         <v>429</v>
-      </c>
-      <c r="F45" t="s">
-        <v>430</v>
-      </c>
-      <c r="G45" t="s">
-        <v>431</v>
       </c>
       <c r="H45" t="s">
         <v>191</v>
       </c>
       <c r="I45" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="J45" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B46" t="s">
         <v>195</v>
@@ -7177,27 +7165,27 @@
         <v>2</v>
       </c>
       <c r="E46" t="s">
+        <v>433</v>
+      </c>
+      <c r="F46" t="s">
+        <v>434</v>
+      </c>
+      <c r="G46" t="s">
         <v>435</v>
-      </c>
-      <c r="F46" t="s">
-        <v>436</v>
-      </c>
-      <c r="G46" t="s">
-        <v>437</v>
       </c>
       <c r="H46" t="s">
         <v>191</v>
       </c>
       <c r="I46" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J46" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B47" t="s">
         <v>195</v>
@@ -7209,22 +7197,22 @@
         <v>1</v>
       </c>
       <c r="E47" t="s">
+        <v>439</v>
+      </c>
+      <c r="F47" t="s">
+        <v>440</v>
+      </c>
+      <c r="G47" t="s">
         <v>441</v>
-      </c>
-      <c r="F47" t="s">
-        <v>442</v>
-      </c>
-      <c r="G47" t="s">
-        <v>443</v>
       </c>
       <c r="H47" t="s">
         <v>191</v>
       </c>
       <c r="I47" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="J47" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -7241,27 +7229,27 @@
         <v>1</v>
       </c>
       <c r="E48" t="s">
+        <v>444</v>
+      </c>
+      <c r="F48" t="s">
+        <v>445</v>
+      </c>
+      <c r="G48" t="s">
         <v>446</v>
-      </c>
-      <c r="F48" t="s">
-        <v>447</v>
-      </c>
-      <c r="G48" t="s">
-        <v>448</v>
       </c>
       <c r="H48" t="s">
         <v>191</v>
       </c>
       <c r="I48" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="J48" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B49" t="s">
         <v>187</v>
@@ -7273,27 +7261,27 @@
         <v>1</v>
       </c>
       <c r="E49" t="s">
+        <v>450</v>
+      </c>
+      <c r="F49" t="s">
+        <v>451</v>
+      </c>
+      <c r="G49" t="s">
         <v>452</v>
-      </c>
-      <c r="F49" t="s">
-        <v>453</v>
-      </c>
-      <c r="G49" t="s">
-        <v>454</v>
       </c>
       <c r="H49" t="s">
         <v>191</v>
       </c>
       <c r="I49" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="J49" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B50" t="s">
         <v>195</v>
@@ -7305,22 +7293,22 @@
         <v>2</v>
       </c>
       <c r="E50" t="s">
+        <v>456</v>
+      </c>
+      <c r="F50" t="s">
+        <v>457</v>
+      </c>
+      <c r="G50" t="s">
         <v>458</v>
-      </c>
-      <c r="F50" t="s">
-        <v>459</v>
-      </c>
-      <c r="G50" t="s">
-        <v>460</v>
       </c>
       <c r="H50" t="s">
         <v>191</v>
       </c>
       <c r="I50" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="J50" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -7337,27 +7325,27 @@
         <v>1</v>
       </c>
       <c r="E51" t="s">
+        <v>461</v>
+      </c>
+      <c r="F51" t="s">
+        <v>462</v>
+      </c>
+      <c r="G51" t="s">
         <v>463</v>
-      </c>
-      <c r="F51" t="s">
-        <v>464</v>
-      </c>
-      <c r="G51" t="s">
-        <v>465</v>
       </c>
       <c r="H51" t="s">
         <v>191</v>
       </c>
       <c r="I51" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="J51" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B52" t="s">
         <v>195</v>
@@ -7369,27 +7357,27 @@
         <v>2</v>
       </c>
       <c r="E52" t="s">
+        <v>467</v>
+      </c>
+      <c r="F52" t="s">
+        <v>468</v>
+      </c>
+      <c r="G52" t="s">
         <v>469</v>
-      </c>
-      <c r="F52" t="s">
-        <v>470</v>
-      </c>
-      <c r="G52" t="s">
-        <v>471</v>
       </c>
       <c r="H52" t="s">
         <v>191</v>
       </c>
       <c r="I52" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="J52" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B53" t="s">
         <v>195</v>
@@ -7401,22 +7389,22 @@
         <v>1</v>
       </c>
       <c r="E53" t="s">
+        <v>473</v>
+      </c>
+      <c r="F53" t="s">
+        <v>474</v>
+      </c>
+      <c r="G53" t="s">
         <v>475</v>
-      </c>
-      <c r="F53" t="s">
-        <v>476</v>
-      </c>
-      <c r="G53" t="s">
-        <v>477</v>
       </c>
       <c r="H53" t="s">
         <v>191</v>
       </c>
       <c r="I53" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="J53" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -7433,27 +7421,27 @@
         <v>2</v>
       </c>
       <c r="E54" t="s">
+        <v>478</v>
+      </c>
+      <c r="F54" t="s">
+        <v>479</v>
+      </c>
+      <c r="G54" t="s">
         <v>480</v>
-      </c>
-      <c r="F54" t="s">
-        <v>481</v>
-      </c>
-      <c r="G54" t="s">
-        <v>482</v>
       </c>
       <c r="H54" t="s">
         <v>191</v>
       </c>
       <c r="I54" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="J54" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B55" t="s">
         <v>195</v>
@@ -7465,27 +7453,27 @@
         <v>2</v>
       </c>
       <c r="E55" t="s">
+        <v>484</v>
+      </c>
+      <c r="F55" t="s">
+        <v>485</v>
+      </c>
+      <c r="G55" t="s">
         <v>486</v>
-      </c>
-      <c r="F55" t="s">
-        <v>487</v>
-      </c>
-      <c r="G55" t="s">
-        <v>488</v>
       </c>
       <c r="H55" t="s">
         <v>191</v>
       </c>
       <c r="I55" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="J55" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B56" t="s">
         <v>195</v>
@@ -7497,27 +7485,27 @@
         <v>2</v>
       </c>
       <c r="E56" t="s">
+        <v>490</v>
+      </c>
+      <c r="F56" t="s">
+        <v>491</v>
+      </c>
+      <c r="G56" t="s">
         <v>492</v>
-      </c>
-      <c r="F56" t="s">
-        <v>493</v>
-      </c>
-      <c r="G56" t="s">
-        <v>494</v>
       </c>
       <c r="H56" t="s">
         <v>191</v>
       </c>
       <c r="I56" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="J56" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B57" t="s">
         <v>195</v>
@@ -7529,22 +7517,22 @@
         <v>2</v>
       </c>
       <c r="E57" t="s">
+        <v>496</v>
+      </c>
+      <c r="F57" t="s">
+        <v>497</v>
+      </c>
+      <c r="G57" t="s">
         <v>498</v>
-      </c>
-      <c r="F57" t="s">
-        <v>499</v>
-      </c>
-      <c r="G57" t="s">
-        <v>500</v>
       </c>
       <c r="H57" t="s">
         <v>191</v>
       </c>
       <c r="I57" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="J57" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -7561,27 +7549,27 @@
         <v>2</v>
       </c>
       <c r="E58" t="s">
+        <v>501</v>
+      </c>
+      <c r="F58" t="s">
+        <v>502</v>
+      </c>
+      <c r="G58" t="s">
         <v>503</v>
-      </c>
-      <c r="F58" t="s">
-        <v>504</v>
-      </c>
-      <c r="G58" t="s">
-        <v>505</v>
       </c>
       <c r="H58" t="s">
         <v>191</v>
       </c>
       <c r="I58" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="J58" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B59" t="s">
         <v>195</v>
@@ -7593,27 +7581,27 @@
         <v>1</v>
       </c>
       <c r="E59" t="s">
+        <v>507</v>
+      </c>
+      <c r="F59" t="s">
+        <v>508</v>
+      </c>
+      <c r="G59" t="s">
         <v>509</v>
-      </c>
-      <c r="F59" t="s">
-        <v>510</v>
-      </c>
-      <c r="G59" t="s">
-        <v>511</v>
       </c>
       <c r="H59" t="s">
         <v>191</v>
       </c>
       <c r="I59" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="J59" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B60" t="s">
         <v>195</v>
@@ -7625,27 +7613,27 @@
         <v>2</v>
       </c>
       <c r="E60" t="s">
+        <v>513</v>
+      </c>
+      <c r="F60" t="s">
+        <v>514</v>
+      </c>
+      <c r="G60" t="s">
         <v>515</v>
-      </c>
-      <c r="F60" t="s">
-        <v>516</v>
-      </c>
-      <c r="G60" t="s">
-        <v>517</v>
       </c>
       <c r="H60" t="s">
         <v>191</v>
       </c>
       <c r="I60" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="J60" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B61" t="s">
         <v>195</v>
@@ -7657,22 +7645,22 @@
         <v>2</v>
       </c>
       <c r="E61" t="s">
+        <v>519</v>
+      </c>
+      <c r="F61" t="s">
+        <v>520</v>
+      </c>
+      <c r="G61" t="s">
         <v>521</v>
-      </c>
-      <c r="F61" t="s">
-        <v>522</v>
-      </c>
-      <c r="G61" t="s">
-        <v>523</v>
       </c>
       <c r="H61" t="s">
         <v>191</v>
       </c>
       <c r="I61" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="J61" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -7689,22 +7677,22 @@
         <v>2</v>
       </c>
       <c r="E62" t="s">
+        <v>524</v>
+      </c>
+      <c r="F62" t="s">
+        <v>525</v>
+      </c>
+      <c r="G62" t="s">
         <v>526</v>
-      </c>
-      <c r="F62" t="s">
-        <v>527</v>
-      </c>
-      <c r="G62" t="s">
-        <v>528</v>
       </c>
       <c r="H62" t="s">
         <v>191</v>
       </c>
       <c r="I62" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="J62" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -7721,22 +7709,22 @@
         <v>2</v>
       </c>
       <c r="E63" t="s">
+        <v>529</v>
+      </c>
+      <c r="F63" t="s">
+        <v>530</v>
+      </c>
+      <c r="G63" t="s">
         <v>531</v>
-      </c>
-      <c r="F63" t="s">
-        <v>532</v>
-      </c>
-      <c r="G63" t="s">
-        <v>533</v>
       </c>
       <c r="H63" t="s">
         <v>191</v>
       </c>
       <c r="I63" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="J63" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -7753,22 +7741,22 @@
         <v>1</v>
       </c>
       <c r="E64" t="s">
+        <v>534</v>
+      </c>
+      <c r="F64" t="s">
+        <v>535</v>
+      </c>
+      <c r="G64" t="s">
         <v>536</v>
-      </c>
-      <c r="F64" t="s">
-        <v>537</v>
-      </c>
-      <c r="G64" t="s">
-        <v>538</v>
       </c>
       <c r="H64" t="s">
         <v>191</v>
       </c>
       <c r="I64" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="J64" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -7785,22 +7773,22 @@
         <v>1</v>
       </c>
       <c r="E65" t="s">
+        <v>539</v>
+      </c>
+      <c r="F65" t="s">
+        <v>540</v>
+      </c>
+      <c r="G65" t="s">
         <v>541</v>
-      </c>
-      <c r="F65" t="s">
-        <v>542</v>
-      </c>
-      <c r="G65" t="s">
-        <v>543</v>
       </c>
       <c r="H65" t="s">
         <v>191</v>
       </c>
       <c r="I65" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="J65" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -7817,22 +7805,22 @@
         <v>1</v>
       </c>
       <c r="E66" t="s">
+        <v>544</v>
+      </c>
+      <c r="F66" t="s">
+        <v>545</v>
+      </c>
+      <c r="G66" t="s">
         <v>546</v>
-      </c>
-      <c r="F66" t="s">
-        <v>547</v>
-      </c>
-      <c r="G66" t="s">
-        <v>548</v>
       </c>
       <c r="H66" t="s">
         <v>191</v>
       </c>
       <c r="I66" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="J66" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -7849,27 +7837,27 @@
         <v>2</v>
       </c>
       <c r="E67" t="s">
+        <v>549</v>
+      </c>
+      <c r="F67" t="s">
+        <v>550</v>
+      </c>
+      <c r="G67" t="s">
         <v>551</v>
-      </c>
-      <c r="F67" t="s">
-        <v>552</v>
-      </c>
-      <c r="G67" t="s">
-        <v>553</v>
       </c>
       <c r="H67" t="s">
         <v>191</v>
       </c>
       <c r="I67" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="J67" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B68" t="s">
         <v>195</v>
@@ -7881,22 +7869,22 @@
         <v>2</v>
       </c>
       <c r="E68" t="s">
+        <v>555</v>
+      </c>
+      <c r="F68" t="s">
+        <v>556</v>
+      </c>
+      <c r="G68" t="s">
         <v>557</v>
-      </c>
-      <c r="F68" t="s">
-        <v>558</v>
-      </c>
-      <c r="G68" t="s">
-        <v>559</v>
       </c>
       <c r="H68" t="s">
         <v>191</v>
       </c>
       <c r="I68" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="J68" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -7913,27 +7901,27 @@
         <v>1</v>
       </c>
       <c r="E69" t="s">
+        <v>560</v>
+      </c>
+      <c r="F69" t="s">
+        <v>561</v>
+      </c>
+      <c r="G69" t="s">
         <v>562</v>
-      </c>
-      <c r="F69" t="s">
-        <v>563</v>
-      </c>
-      <c r="G69" t="s">
-        <v>564</v>
       </c>
       <c r="H69" t="s">
         <v>191</v>
       </c>
       <c r="I69" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="J69" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B70" t="s">
         <v>187</v>
@@ -7945,22 +7933,22 @@
         <v>2</v>
       </c>
       <c r="E70" t="s">
+        <v>566</v>
+      </c>
+      <c r="F70" t="s">
+        <v>567</v>
+      </c>
+      <c r="G70" t="s">
         <v>568</v>
-      </c>
-      <c r="F70" t="s">
-        <v>569</v>
-      </c>
-      <c r="G70" t="s">
-        <v>570</v>
       </c>
       <c r="H70" t="s">
         <v>191</v>
       </c>
       <c r="I70" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="J70" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
@@ -7977,22 +7965,22 @@
         <v>1</v>
       </c>
       <c r="E71" t="s">
+        <v>571</v>
+      </c>
+      <c r="F71" t="s">
+        <v>572</v>
+      </c>
+      <c r="G71" t="s">
         <v>573</v>
-      </c>
-      <c r="F71" t="s">
-        <v>574</v>
-      </c>
-      <c r="G71" t="s">
-        <v>575</v>
       </c>
       <c r="H71" t="s">
         <v>191</v>
       </c>
       <c r="I71" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="J71" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
@@ -8009,27 +7997,27 @@
         <v>1</v>
       </c>
       <c r="E72" t="s">
+        <v>576</v>
+      </c>
+      <c r="F72" t="s">
+        <v>577</v>
+      </c>
+      <c r="G72" t="s">
         <v>578</v>
-      </c>
-      <c r="F72" t="s">
-        <v>579</v>
-      </c>
-      <c r="G72" t="s">
-        <v>580</v>
       </c>
       <c r="H72" t="s">
         <v>191</v>
       </c>
       <c r="I72" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="J72" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B73" t="s">
         <v>195</v>
@@ -8041,22 +8029,22 @@
         <v>1</v>
       </c>
       <c r="E73" t="s">
+        <v>582</v>
+      </c>
+      <c r="F73" t="s">
+        <v>583</v>
+      </c>
+      <c r="G73" t="s">
         <v>584</v>
-      </c>
-      <c r="F73" t="s">
-        <v>585</v>
-      </c>
-      <c r="G73" t="s">
-        <v>586</v>
       </c>
       <c r="H73" t="s">
         <v>191</v>
       </c>
       <c r="I73" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="J73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
@@ -8073,22 +8061,22 @@
         <v>1</v>
       </c>
       <c r="E74" t="s">
+        <v>587</v>
+      </c>
+      <c r="F74" t="s">
+        <v>588</v>
+      </c>
+      <c r="G74" t="s">
         <v>589</v>
-      </c>
-      <c r="F74" t="s">
-        <v>590</v>
-      </c>
-      <c r="G74" t="s">
-        <v>591</v>
       </c>
       <c r="H74" t="s">
         <v>191</v>
       </c>
       <c r="I74" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="J74" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -8105,22 +8093,22 @@
         <v>1</v>
       </c>
       <c r="E75" t="s">
+        <v>592</v>
+      </c>
+      <c r="F75" t="s">
+        <v>593</v>
+      </c>
+      <c r="G75" t="s">
         <v>594</v>
-      </c>
-      <c r="F75" t="s">
-        <v>595</v>
-      </c>
-      <c r="G75" t="s">
-        <v>596</v>
       </c>
       <c r="H75" t="s">
         <v>191</v>
       </c>
       <c r="I75" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="J75" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
@@ -8137,27 +8125,27 @@
         <v>1</v>
       </c>
       <c r="E76" t="s">
+        <v>597</v>
+      </c>
+      <c r="F76" t="s">
+        <v>598</v>
+      </c>
+      <c r="G76" t="s">
         <v>599</v>
-      </c>
-      <c r="F76" t="s">
-        <v>600</v>
-      </c>
-      <c r="G76" t="s">
-        <v>601</v>
       </c>
       <c r="H76" t="s">
         <v>191</v>
       </c>
       <c r="I76" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="J76" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B77" t="s">
         <v>195</v>
@@ -8169,22 +8157,22 @@
         <v>2</v>
       </c>
       <c r="E77" t="s">
+        <v>603</v>
+      </c>
+      <c r="F77" t="s">
+        <v>604</v>
+      </c>
+      <c r="G77" t="s">
         <v>605</v>
-      </c>
-      <c r="F77" t="s">
-        <v>606</v>
-      </c>
-      <c r="G77" t="s">
-        <v>607</v>
       </c>
       <c r="H77" t="s">
         <v>191</v>
       </c>
       <c r="I77" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="J77" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -8201,22 +8189,22 @@
         <v>2</v>
       </c>
       <c r="E78" t="s">
+        <v>608</v>
+      </c>
+      <c r="F78" t="s">
+        <v>609</v>
+      </c>
+      <c r="G78" t="s">
         <v>610</v>
-      </c>
-      <c r="F78" t="s">
-        <v>611</v>
-      </c>
-      <c r="G78" t="s">
-        <v>612</v>
       </c>
       <c r="H78" t="s">
         <v>191</v>
       </c>
       <c r="I78" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="J78" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -8233,27 +8221,27 @@
         <v>1</v>
       </c>
       <c r="E79" t="s">
+        <v>613</v>
+      </c>
+      <c r="F79" t="s">
+        <v>614</v>
+      </c>
+      <c r="G79" t="s">
         <v>615</v>
-      </c>
-      <c r="F79" t="s">
-        <v>616</v>
-      </c>
-      <c r="G79" t="s">
-        <v>617</v>
       </c>
       <c r="H79" t="s">
         <v>191</v>
       </c>
       <c r="I79" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="J79" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B80" t="s">
         <v>195</v>
@@ -8265,27 +8253,27 @@
         <v>1</v>
       </c>
       <c r="E80" t="s">
+        <v>619</v>
+      </c>
+      <c r="F80" t="s">
+        <v>620</v>
+      </c>
+      <c r="G80" t="s">
         <v>621</v>
-      </c>
-      <c r="F80" t="s">
-        <v>622</v>
-      </c>
-      <c r="G80" t="s">
-        <v>623</v>
       </c>
       <c r="H80" t="s">
         <v>191</v>
       </c>
       <c r="I80" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="J80" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B81" t="s">
         <v>187</v>
@@ -8297,27 +8285,27 @@
         <v>1</v>
       </c>
       <c r="E81" t="s">
+        <v>625</v>
+      </c>
+      <c r="F81" t="s">
+        <v>626</v>
+      </c>
+      <c r="G81" t="s">
         <v>627</v>
-      </c>
-      <c r="F81" t="s">
-        <v>628</v>
-      </c>
-      <c r="G81" t="s">
-        <v>629</v>
       </c>
       <c r="H81" t="s">
         <v>191</v>
       </c>
       <c r="I81" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="J81" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B82" t="s">
         <v>195</v>
@@ -8329,22 +8317,22 @@
         <v>1</v>
       </c>
       <c r="E82" t="s">
+        <v>631</v>
+      </c>
+      <c r="F82" t="s">
+        <v>632</v>
+      </c>
+      <c r="G82" t="s">
         <v>633</v>
-      </c>
-      <c r="F82" t="s">
-        <v>634</v>
-      </c>
-      <c r="G82" t="s">
-        <v>635</v>
       </c>
       <c r="H82" t="s">
         <v>191</v>
       </c>
       <c r="I82" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="J82" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -8361,27 +8349,27 @@
         <v>2</v>
       </c>
       <c r="E83" t="s">
+        <v>636</v>
+      </c>
+      <c r="F83" t="s">
+        <v>637</v>
+      </c>
+      <c r="G83" t="s">
         <v>638</v>
-      </c>
-      <c r="F83" t="s">
-        <v>639</v>
-      </c>
-      <c r="G83" t="s">
-        <v>640</v>
       </c>
       <c r="H83" t="s">
         <v>191</v>
       </c>
       <c r="I83" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="J83" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B84" t="s">
         <v>195</v>
@@ -8393,22 +8381,22 @@
         <v>1</v>
       </c>
       <c r="E84" t="s">
+        <v>642</v>
+      </c>
+      <c r="F84" t="s">
+        <v>643</v>
+      </c>
+      <c r="G84" t="s">
         <v>644</v>
-      </c>
-      <c r="F84" t="s">
-        <v>645</v>
-      </c>
-      <c r="G84" t="s">
-        <v>646</v>
       </c>
       <c r="H84" t="s">
         <v>191</v>
       </c>
       <c r="I84" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="J84" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
@@ -8425,27 +8413,27 @@
         <v>1</v>
       </c>
       <c r="E85" t="s">
+        <v>647</v>
+      </c>
+      <c r="F85" t="s">
+        <v>648</v>
+      </c>
+      <c r="G85" t="s">
         <v>649</v>
-      </c>
-      <c r="F85" t="s">
-        <v>650</v>
-      </c>
-      <c r="G85" t="s">
-        <v>651</v>
       </c>
       <c r="H85" t="s">
         <v>191</v>
       </c>
       <c r="I85" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="J85" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B86" t="s">
         <v>195</v>
@@ -8457,27 +8445,27 @@
         <v>2</v>
       </c>
       <c r="E86" t="s">
+        <v>653</v>
+      </c>
+      <c r="F86" t="s">
+        <v>654</v>
+      </c>
+      <c r="G86" t="s">
         <v>655</v>
-      </c>
-      <c r="F86" t="s">
-        <v>656</v>
-      </c>
-      <c r="G86" t="s">
-        <v>657</v>
       </c>
       <c r="H86" t="s">
         <v>191</v>
       </c>
       <c r="I86" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="J86" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B87" t="s">
         <v>195</v>
@@ -8489,27 +8477,27 @@
         <v>1</v>
       </c>
       <c r="E87" t="s">
+        <v>659</v>
+      </c>
+      <c r="F87" t="s">
+        <v>660</v>
+      </c>
+      <c r="G87" t="s">
         <v>661</v>
-      </c>
-      <c r="F87" t="s">
-        <v>662</v>
-      </c>
-      <c r="G87" t="s">
-        <v>663</v>
       </c>
       <c r="H87" t="s">
         <v>191</v>
       </c>
       <c r="I87" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="J87" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B88" t="s">
         <v>187</v>
@@ -8521,22 +8509,22 @@
         <v>2</v>
       </c>
       <c r="E88" t="s">
+        <v>665</v>
+      </c>
+      <c r="F88" t="s">
+        <v>666</v>
+      </c>
+      <c r="G88" t="s">
         <v>667</v>
-      </c>
-      <c r="F88" t="s">
-        <v>668</v>
-      </c>
-      <c r="G88" t="s">
-        <v>669</v>
       </c>
       <c r="H88" t="s">
         <v>191</v>
       </c>
       <c r="I88" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="J88" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
@@ -8553,22 +8541,22 @@
         <v>2</v>
       </c>
       <c r="E89" t="s">
+        <v>670</v>
+      </c>
+      <c r="F89" t="s">
+        <v>671</v>
+      </c>
+      <c r="G89" t="s">
         <v>672</v>
-      </c>
-      <c r="F89" t="s">
-        <v>673</v>
-      </c>
-      <c r="G89" t="s">
-        <v>674</v>
       </c>
       <c r="H89" t="s">
         <v>191</v>
       </c>
       <c r="I89" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="J89" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
@@ -8585,27 +8573,27 @@
         <v>2</v>
       </c>
       <c r="E90" t="s">
+        <v>675</v>
+      </c>
+      <c r="F90" t="s">
+        <v>676</v>
+      </c>
+      <c r="G90" t="s">
         <v>677</v>
-      </c>
-      <c r="F90" t="s">
-        <v>678</v>
-      </c>
-      <c r="G90" t="s">
-        <v>679</v>
       </c>
       <c r="H90" t="s">
         <v>191</v>
       </c>
       <c r="I90" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="J90" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B91" t="s">
         <v>195</v>
@@ -8617,22 +8605,22 @@
         <v>2</v>
       </c>
       <c r="E91" t="s">
+        <v>681</v>
+      </c>
+      <c r="F91" t="s">
+        <v>682</v>
+      </c>
+      <c r="G91" t="s">
         <v>683</v>
-      </c>
-      <c r="F91" t="s">
-        <v>684</v>
-      </c>
-      <c r="G91" t="s">
-        <v>685</v>
       </c>
       <c r="H91" t="s">
         <v>191</v>
       </c>
       <c r="I91" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="J91" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
@@ -8649,27 +8637,27 @@
         <v>2</v>
       </c>
       <c r="E92" t="s">
+        <v>686</v>
+      </c>
+      <c r="F92" t="s">
+        <v>687</v>
+      </c>
+      <c r="G92" t="s">
         <v>688</v>
-      </c>
-      <c r="F92" t="s">
-        <v>689</v>
-      </c>
-      <c r="G92" t="s">
-        <v>690</v>
       </c>
       <c r="H92" t="s">
         <v>191</v>
       </c>
       <c r="I92" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="J92" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B93" t="s">
         <v>195</v>
@@ -8681,27 +8669,27 @@
         <v>1</v>
       </c>
       <c r="E93" t="s">
+        <v>692</v>
+      </c>
+      <c r="F93" t="s">
+        <v>693</v>
+      </c>
+      <c r="G93" t="s">
         <v>694</v>
-      </c>
-      <c r="F93" t="s">
-        <v>695</v>
-      </c>
-      <c r="G93" t="s">
-        <v>696</v>
       </c>
       <c r="H93" t="s">
         <v>191</v>
       </c>
       <c r="I93" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="J93" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B94" t="s">
         <v>195</v>
@@ -8713,27 +8701,27 @@
         <v>1</v>
       </c>
       <c r="E94" t="s">
+        <v>698</v>
+      </c>
+      <c r="F94" t="s">
+        <v>699</v>
+      </c>
+      <c r="G94" t="s">
         <v>700</v>
-      </c>
-      <c r="F94" t="s">
-        <v>701</v>
-      </c>
-      <c r="G94" t="s">
-        <v>702</v>
       </c>
       <c r="H94" t="s">
         <v>191</v>
       </c>
       <c r="I94" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="J94" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B95" t="s">
         <v>195</v>
@@ -8745,27 +8733,27 @@
         <v>1</v>
       </c>
       <c r="E95" t="s">
+        <v>704</v>
+      </c>
+      <c r="F95" t="s">
+        <v>705</v>
+      </c>
+      <c r="G95" t="s">
         <v>706</v>
-      </c>
-      <c r="F95" t="s">
-        <v>707</v>
-      </c>
-      <c r="G95" t="s">
-        <v>708</v>
       </c>
       <c r="H95" t="s">
         <v>191</v>
       </c>
       <c r="I95" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="J95" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B96" t="s">
         <v>195</v>
@@ -8777,27 +8765,27 @@
         <v>1</v>
       </c>
       <c r="E96" t="s">
+        <v>710</v>
+      </c>
+      <c r="F96" t="s">
+        <v>711</v>
+      </c>
+      <c r="G96" t="s">
         <v>712</v>
-      </c>
-      <c r="F96" t="s">
-        <v>713</v>
-      </c>
-      <c r="G96" t="s">
-        <v>714</v>
       </c>
       <c r="H96" t="s">
         <v>191</v>
       </c>
       <c r="I96" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="J96" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B97" t="s">
         <v>195</v>
@@ -8809,22 +8797,22 @@
         <v>2</v>
       </c>
       <c r="E97" t="s">
+        <v>716</v>
+      </c>
+      <c r="F97" t="s">
+        <v>717</v>
+      </c>
+      <c r="G97" t="s">
         <v>718</v>
-      </c>
-      <c r="F97" t="s">
-        <v>719</v>
-      </c>
-      <c r="G97" t="s">
-        <v>720</v>
       </c>
       <c r="H97" t="s">
         <v>191</v>
       </c>
       <c r="I97" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="J97" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
@@ -8841,27 +8829,27 @@
         <v>1</v>
       </c>
       <c r="E98" t="s">
+        <v>721</v>
+      </c>
+      <c r="F98" t="s">
+        <v>722</v>
+      </c>
+      <c r="G98" t="s">
         <v>723</v>
-      </c>
-      <c r="F98" t="s">
-        <v>724</v>
-      </c>
-      <c r="G98" t="s">
-        <v>725</v>
       </c>
       <c r="H98" t="s">
         <v>191</v>
       </c>
       <c r="I98" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="J98" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B99" t="s">
         <v>195</v>
@@ -8873,13 +8861,13 @@
         <v>1</v>
       </c>
       <c r="E99" t="s">
+        <v>727</v>
+      </c>
+      <c r="F99" t="s">
+        <v>728</v>
+      </c>
+      <c r="G99" t="s">
         <v>729</v>
-      </c>
-      <c r="F99" t="s">
-        <v>730</v>
-      </c>
-      <c r="G99" t="s">
-        <v>731</v>
       </c>
       <c r="H99" t="s">
         <v>191</v>
@@ -8894,7 +8882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
@@ -8934,7 +8922,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B2" t="s">
         <v>195</v>
@@ -8943,27 +8931,27 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
+        <v>731</v>
+      </c>
+      <c r="F2" t="s">
+        <v>732</v>
+      </c>
+      <c r="G2" t="s">
         <v>733</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>734</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>735</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>736</v>
-      </c>
-      <c r="I2" t="s">
-        <v>737</v>
-      </c>
-      <c r="J2" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B3" t="s">
         <v>195</v>
@@ -8972,27 +8960,27 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
+        <v>738</v>
+      </c>
+      <c r="F3" t="s">
+        <v>739</v>
+      </c>
+      <c r="G3" t="s">
         <v>740</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
+        <v>734</v>
+      </c>
+      <c r="I3" t="s">
         <v>741</v>
       </c>
-      <c r="G3" t="s">
+      <c r="J3" t="s">
         <v>742</v>
-      </c>
-      <c r="H3" t="s">
-        <v>736</v>
-      </c>
-      <c r="I3" t="s">
-        <v>743</v>
-      </c>
-      <c r="J3" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B4" t="s">
         <v>195</v>
@@ -9001,27 +8989,27 @@
         <v>6</v>
       </c>
       <c r="E4" t="s">
+        <v>744</v>
+      </c>
+      <c r="F4" t="s">
+        <v>745</v>
+      </c>
+      <c r="G4" t="s">
         <v>746</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
+        <v>734</v>
+      </c>
+      <c r="I4" t="s">
         <v>747</v>
       </c>
-      <c r="G4" t="s">
+      <c r="J4" t="s">
         <v>748</v>
-      </c>
-      <c r="H4" t="s">
-        <v>736</v>
-      </c>
-      <c r="I4" t="s">
-        <v>749</v>
-      </c>
-      <c r="J4" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B5" t="s">
         <v>195</v>
@@ -9030,28 +9018,28 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
+        <v>750</v>
+      </c>
+      <c r="F5" t="s">
+        <v>751</v>
+      </c>
+      <c r="G5" t="s">
         <v>752</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
+        <v>734</v>
+      </c>
+      <c r="I5" t="s">
         <v>753</v>
       </c>
-      <c r="G5" t="s">
+      <c r="J5" t="s">
         <v>754</v>
       </c>
-      <c r="H5" t="s">
-        <v>736</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>755</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>756</v>
-      </c>
-      <c r="K5" t="s">
-        <v>757</v>
-      </c>
-      <c r="L5" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -9065,27 +9053,27 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
+        <v>757</v>
+      </c>
+      <c r="F6" t="s">
+        <v>758</v>
+      </c>
+      <c r="G6" t="s">
         <v>759</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
+        <v>734</v>
+      </c>
+      <c r="I6" t="s">
         <v>760</v>
       </c>
-      <c r="G6" t="s">
+      <c r="J6" t="s">
         <v>761</v>
-      </c>
-      <c r="H6" t="s">
-        <v>736</v>
-      </c>
-      <c r="I6" t="s">
-        <v>762</v>
-      </c>
-      <c r="J6" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B7" t="s">
         <v>195</v>
@@ -9094,33 +9082,33 @@
         <v>20</v>
       </c>
       <c r="E7" t="s">
+        <v>763</v>
+      </c>
+      <c r="F7" t="s">
+        <v>764</v>
+      </c>
+      <c r="G7" t="s">
         <v>765</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
+        <v>734</v>
+      </c>
+      <c r="I7" t="s">
         <v>766</v>
       </c>
-      <c r="G7" t="s">
+      <c r="J7" t="s">
         <v>767</v>
       </c>
-      <c r="H7" t="s">
-        <v>736</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>768</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>769</v>
-      </c>
-      <c r="K7" t="s">
-        <v>770</v>
-      </c>
-      <c r="L7" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B8" t="s">
         <v>195</v>
@@ -9129,28 +9117,28 @@
         <v>8</v>
       </c>
       <c r="E8" t="s">
+        <v>771</v>
+      </c>
+      <c r="F8" t="s">
+        <v>772</v>
+      </c>
+      <c r="G8" t="s">
         <v>773</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
+        <v>734</v>
+      </c>
+      <c r="I8" t="s">
         <v>774</v>
       </c>
-      <c r="G8" t="s">
+      <c r="J8" t="s">
         <v>775</v>
       </c>
-      <c r="H8" t="s">
-        <v>736</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="K8" t="s">
         <v>776</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
         <v>777</v>
-      </c>
-      <c r="K8" t="s">
-        <v>778</v>
-      </c>
-      <c r="L8" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -9164,22 +9152,22 @@
         <v>36</v>
       </c>
       <c r="E9" t="s">
+        <v>778</v>
+      </c>
+      <c r="F9" t="s">
+        <v>779</v>
+      </c>
+      <c r="G9" t="s">
         <v>780</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
+        <v>734</v>
+      </c>
+      <c r="I9" t="s">
         <v>781</v>
       </c>
-      <c r="G9" t="s">
+      <c r="J9" t="s">
         <v>782</v>
-      </c>
-      <c r="H9" t="s">
-        <v>736</v>
-      </c>
-      <c r="I9" t="s">
-        <v>783</v>
-      </c>
-      <c r="J9" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -9193,22 +9181,22 @@
         <v>32</v>
       </c>
       <c r="E10" t="s">
+        <v>783</v>
+      </c>
+      <c r="F10" t="s">
+        <v>784</v>
+      </c>
+      <c r="G10" t="s">
         <v>785</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s">
+        <v>734</v>
+      </c>
+      <c r="I10" t="s">
         <v>786</v>
       </c>
-      <c r="G10" t="s">
+      <c r="J10" t="s">
         <v>787</v>
-      </c>
-      <c r="H10" t="s">
-        <v>736</v>
-      </c>
-      <c r="I10" t="s">
-        <v>788</v>
-      </c>
-      <c r="J10" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -9222,22 +9210,22 @@
         <v>49</v>
       </c>
       <c r="E11" t="s">
+        <v>788</v>
+      </c>
+      <c r="F11" t="s">
+        <v>789</v>
+      </c>
+      <c r="G11" t="s">
         <v>790</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
+        <v>734</v>
+      </c>
+      <c r="I11" t="s">
         <v>791</v>
       </c>
-      <c r="G11" t="s">
+      <c r="J11" t="s">
         <v>792</v>
-      </c>
-      <c r="H11" t="s">
-        <v>736</v>
-      </c>
-      <c r="I11" t="s">
-        <v>793</v>
-      </c>
-      <c r="J11" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -9251,22 +9239,22 @@
         <v>29</v>
       </c>
       <c r="E12" t="s">
+        <v>793</v>
+      </c>
+      <c r="F12" t="s">
+        <v>794</v>
+      </c>
+      <c r="G12" t="s">
         <v>795</v>
       </c>
-      <c r="F12" t="s">
+      <c r="H12" t="s">
+        <v>734</v>
+      </c>
+      <c r="I12" t="s">
         <v>796</v>
       </c>
-      <c r="G12" t="s">
+      <c r="J12" t="s">
         <v>797</v>
-      </c>
-      <c r="H12" t="s">
-        <v>736</v>
-      </c>
-      <c r="I12" t="s">
-        <v>798</v>
-      </c>
-      <c r="J12" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -9280,27 +9268,27 @@
         <v>27</v>
       </c>
       <c r="E13" t="s">
+        <v>798</v>
+      </c>
+      <c r="F13" t="s">
+        <v>799</v>
+      </c>
+      <c r="G13" t="s">
         <v>800</v>
       </c>
-      <c r="F13" t="s">
+      <c r="H13" t="s">
+        <v>734</v>
+      </c>
+      <c r="I13" t="s">
         <v>801</v>
       </c>
-      <c r="G13" t="s">
+      <c r="J13" t="s">
         <v>802</v>
-      </c>
-      <c r="H13" t="s">
-        <v>736</v>
-      </c>
-      <c r="I13" t="s">
-        <v>803</v>
-      </c>
-      <c r="J13" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B14" t="s">
         <v>195</v>
@@ -9309,27 +9297,27 @@
         <v>42</v>
       </c>
       <c r="E14" t="s">
+        <v>804</v>
+      </c>
+      <c r="F14" t="s">
+        <v>805</v>
+      </c>
+      <c r="G14" t="s">
         <v>806</v>
       </c>
-      <c r="F14" t="s">
+      <c r="H14" t="s">
+        <v>734</v>
+      </c>
+      <c r="I14" t="s">
         <v>807</v>
       </c>
-      <c r="G14" t="s">
+      <c r="J14" t="s">
         <v>808</v>
-      </c>
-      <c r="H14" t="s">
-        <v>736</v>
-      </c>
-      <c r="I14" t="s">
-        <v>809</v>
-      </c>
-      <c r="J14" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B15" t="s">
         <v>195</v>
@@ -9338,27 +9326,27 @@
         <v>47</v>
       </c>
       <c r="E15" t="s">
+        <v>810</v>
+      </c>
+      <c r="F15" t="s">
+        <v>811</v>
+      </c>
+      <c r="G15" t="s">
         <v>812</v>
       </c>
-      <c r="F15" t="s">
+      <c r="H15" t="s">
+        <v>734</v>
+      </c>
+      <c r="I15" t="s">
         <v>813</v>
       </c>
-      <c r="G15" t="s">
+      <c r="J15" t="s">
         <v>814</v>
-      </c>
-      <c r="H15" t="s">
-        <v>736</v>
-      </c>
-      <c r="I15" t="s">
-        <v>815</v>
-      </c>
-      <c r="J15" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B16" t="s">
         <v>195</v>
@@ -9367,22 +9355,22 @@
         <v>31</v>
       </c>
       <c r="E16" t="s">
+        <v>816</v>
+      </c>
+      <c r="F16" t="s">
+        <v>817</v>
+      </c>
+      <c r="G16" t="s">
         <v>818</v>
       </c>
-      <c r="F16" t="s">
+      <c r="H16" t="s">
+        <v>734</v>
+      </c>
+      <c r="I16" t="s">
         <v>819</v>
       </c>
-      <c r="G16" t="s">
+      <c r="J16" t="s">
         <v>820</v>
-      </c>
-      <c r="H16" t="s">
-        <v>736</v>
-      </c>
-      <c r="I16" t="s">
-        <v>821</v>
-      </c>
-      <c r="J16" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -9396,22 +9384,22 @@
         <v>46</v>
       </c>
       <c r="E17" t="s">
+        <v>821</v>
+      </c>
+      <c r="F17" t="s">
+        <v>822</v>
+      </c>
+      <c r="G17" t="s">
         <v>823</v>
       </c>
-      <c r="F17" t="s">
+      <c r="H17" t="s">
+        <v>734</v>
+      </c>
+      <c r="I17" t="s">
         <v>824</v>
       </c>
-      <c r="G17" t="s">
+      <c r="J17" t="s">
         <v>825</v>
-      </c>
-      <c r="H17" t="s">
-        <v>736</v>
-      </c>
-      <c r="I17" t="s">
-        <v>826</v>
-      </c>
-      <c r="J17" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -9425,27 +9413,27 @@
         <v>11</v>
       </c>
       <c r="E18" t="s">
+        <v>826</v>
+      </c>
+      <c r="F18" t="s">
+        <v>827</v>
+      </c>
+      <c r="G18" t="s">
         <v>828</v>
       </c>
-      <c r="F18" t="s">
+      <c r="H18" t="s">
+        <v>734</v>
+      </c>
+      <c r="I18" t="s">
         <v>829</v>
       </c>
-      <c r="G18" t="s">
+      <c r="J18" t="s">
         <v>830</v>
-      </c>
-      <c r="H18" t="s">
-        <v>736</v>
-      </c>
-      <c r="I18" t="s">
-        <v>831</v>
-      </c>
-      <c r="J18" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B19" t="s">
         <v>195</v>
@@ -9454,22 +9442,22 @@
         <v>12</v>
       </c>
       <c r="E19" t="s">
+        <v>832</v>
+      </c>
+      <c r="F19" t="s">
+        <v>833</v>
+      </c>
+      <c r="G19" t="s">
         <v>834</v>
       </c>
-      <c r="F19" t="s">
+      <c r="H19" t="s">
+        <v>734</v>
+      </c>
+      <c r="I19" t="s">
         <v>835</v>
       </c>
-      <c r="G19" t="s">
+      <c r="J19" t="s">
         <v>836</v>
-      </c>
-      <c r="H19" t="s">
-        <v>736</v>
-      </c>
-      <c r="I19" t="s">
-        <v>837</v>
-      </c>
-      <c r="J19" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -9483,27 +9471,27 @@
         <v>44</v>
       </c>
       <c r="E20" t="s">
+        <v>837</v>
+      </c>
+      <c r="F20" t="s">
+        <v>838</v>
+      </c>
+      <c r="G20" t="s">
         <v>839</v>
       </c>
-      <c r="F20" t="s">
+      <c r="H20" t="s">
+        <v>734</v>
+      </c>
+      <c r="I20" t="s">
         <v>840</v>
       </c>
-      <c r="G20" t="s">
+      <c r="J20" t="s">
         <v>841</v>
-      </c>
-      <c r="H20" t="s">
-        <v>736</v>
-      </c>
-      <c r="I20" t="s">
-        <v>842</v>
-      </c>
-      <c r="J20" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B21" t="s">
         <v>195</v>
@@ -9512,22 +9500,22 @@
         <v>15</v>
       </c>
       <c r="E21" t="s">
+        <v>843</v>
+      </c>
+      <c r="F21" t="s">
+        <v>844</v>
+      </c>
+      <c r="G21" t="s">
         <v>845</v>
       </c>
-      <c r="F21" t="s">
+      <c r="H21" t="s">
+        <v>734</v>
+      </c>
+      <c r="I21" t="s">
         <v>846</v>
       </c>
-      <c r="G21" t="s">
+      <c r="J21" t="s">
         <v>847</v>
-      </c>
-      <c r="H21" t="s">
-        <v>736</v>
-      </c>
-      <c r="I21" t="s">
-        <v>848</v>
-      </c>
-      <c r="J21" t="s">
-        <v>849</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -9541,22 +9529,22 @@
         <v>22</v>
       </c>
       <c r="E22" t="s">
+        <v>848</v>
+      </c>
+      <c r="F22" t="s">
+        <v>849</v>
+      </c>
+      <c r="G22" t="s">
         <v>850</v>
       </c>
-      <c r="F22" t="s">
+      <c r="H22" t="s">
+        <v>734</v>
+      </c>
+      <c r="I22" t="s">
         <v>851</v>
       </c>
-      <c r="G22" t="s">
+      <c r="J22" t="s">
         <v>852</v>
-      </c>
-      <c r="H22" t="s">
-        <v>736</v>
-      </c>
-      <c r="I22" t="s">
-        <v>853</v>
-      </c>
-      <c r="J22" t="s">
-        <v>854</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -9570,27 +9558,27 @@
         <v>33</v>
       </c>
       <c r="E23" t="s">
+        <v>853</v>
+      </c>
+      <c r="F23" t="s">
+        <v>854</v>
+      </c>
+      <c r="G23" t="s">
         <v>855</v>
       </c>
-      <c r="F23" t="s">
+      <c r="H23" t="s">
+        <v>734</v>
+      </c>
+      <c r="I23" t="s">
         <v>856</v>
       </c>
-      <c r="G23" t="s">
+      <c r="J23" t="s">
         <v>857</v>
-      </c>
-      <c r="H23" t="s">
-        <v>736</v>
-      </c>
-      <c r="I23" t="s">
-        <v>858</v>
-      </c>
-      <c r="J23" t="s">
-        <v>859</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B24" t="s">
         <v>195</v>
@@ -9599,28 +9587,28 @@
         <v>14</v>
       </c>
       <c r="E24" t="s">
+        <v>859</v>
+      </c>
+      <c r="F24" t="s">
+        <v>860</v>
+      </c>
+      <c r="G24" t="s">
         <v>861</v>
       </c>
-      <c r="F24" t="s">
+      <c r="H24" t="s">
+        <v>734</v>
+      </c>
+      <c r="I24" t="s">
         <v>862</v>
       </c>
-      <c r="G24" t="s">
+      <c r="J24" t="s">
         <v>863</v>
       </c>
-      <c r="H24" t="s">
-        <v>736</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="K24" t="s">
         <v>864</v>
       </c>
-      <c r="J24" t="s">
+      <c r="L24" t="s">
         <v>865</v>
-      </c>
-      <c r="K24" t="s">
-        <v>866</v>
-      </c>
-      <c r="L24" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -9634,22 +9622,22 @@
         <v>48</v>
       </c>
       <c r="E25" t="s">
+        <v>866</v>
+      </c>
+      <c r="F25" t="s">
+        <v>867</v>
+      </c>
+      <c r="G25" t="s">
         <v>868</v>
       </c>
-      <c r="F25" t="s">
+      <c r="H25" t="s">
+        <v>734</v>
+      </c>
+      <c r="I25" t="s">
         <v>869</v>
       </c>
-      <c r="G25" t="s">
+      <c r="J25" t="s">
         <v>870</v>
-      </c>
-      <c r="H25" t="s">
-        <v>736</v>
-      </c>
-      <c r="I25" t="s">
-        <v>871</v>
-      </c>
-      <c r="J25" t="s">
-        <v>872</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -9663,22 +9651,22 @@
         <v>21</v>
       </c>
       <c r="E26" t="s">
+        <v>871</v>
+      </c>
+      <c r="F26" t="s">
+        <v>872</v>
+      </c>
+      <c r="G26" t="s">
         <v>873</v>
       </c>
-      <c r="F26" t="s">
+      <c r="H26" t="s">
+        <v>734</v>
+      </c>
+      <c r="I26" t="s">
         <v>874</v>
       </c>
-      <c r="G26" t="s">
+      <c r="J26" t="s">
         <v>875</v>
-      </c>
-      <c r="H26" t="s">
-        <v>736</v>
-      </c>
-      <c r="I26" t="s">
-        <v>876</v>
-      </c>
-      <c r="J26" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -9692,27 +9680,27 @@
         <v>38</v>
       </c>
       <c r="E27" t="s">
+        <v>876</v>
+      </c>
+      <c r="F27" t="s">
+        <v>877</v>
+      </c>
+      <c r="G27" t="s">
         <v>878</v>
       </c>
-      <c r="F27" t="s">
+      <c r="H27" t="s">
+        <v>734</v>
+      </c>
+      <c r="I27" t="s">
         <v>879</v>
       </c>
-      <c r="G27" t="s">
+      <c r="J27" t="s">
         <v>880</v>
-      </c>
-      <c r="H27" t="s">
-        <v>736</v>
-      </c>
-      <c r="I27" t="s">
-        <v>881</v>
-      </c>
-      <c r="J27" t="s">
-        <v>882</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B28" t="s">
         <v>195</v>
@@ -9721,22 +9709,22 @@
         <v>30</v>
       </c>
       <c r="E28" t="s">
+        <v>882</v>
+      </c>
+      <c r="F28" t="s">
+        <v>883</v>
+      </c>
+      <c r="G28" t="s">
         <v>884</v>
       </c>
-      <c r="F28" t="s">
+      <c r="H28" t="s">
+        <v>734</v>
+      </c>
+      <c r="I28" t="s">
         <v>885</v>
       </c>
-      <c r="G28" t="s">
+      <c r="J28" t="s">
         <v>886</v>
-      </c>
-      <c r="H28" t="s">
-        <v>736</v>
-      </c>
-      <c r="I28" t="s">
-        <v>887</v>
-      </c>
-      <c r="J28" t="s">
-        <v>888</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -9750,22 +9738,22 @@
         <v>5</v>
       </c>
       <c r="E29" t="s">
+        <v>887</v>
+      </c>
+      <c r="F29" t="s">
+        <v>888</v>
+      </c>
+      <c r="G29" t="s">
         <v>889</v>
       </c>
-      <c r="F29" t="s">
+      <c r="H29" t="s">
+        <v>734</v>
+      </c>
+      <c r="I29" t="s">
         <v>890</v>
       </c>
-      <c r="G29" t="s">
+      <c r="J29" t="s">
         <v>891</v>
-      </c>
-      <c r="H29" t="s">
-        <v>736</v>
-      </c>
-      <c r="I29" t="s">
-        <v>892</v>
-      </c>
-      <c r="J29" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -9779,33 +9767,33 @@
         <v>34</v>
       </c>
       <c r="E30" t="s">
+        <v>892</v>
+      </c>
+      <c r="F30" t="s">
+        <v>893</v>
+      </c>
+      <c r="G30" t="s">
         <v>894</v>
       </c>
-      <c r="F30" t="s">
+      <c r="H30" t="s">
+        <v>734</v>
+      </c>
+      <c r="I30" t="s">
         <v>895</v>
       </c>
-      <c r="G30" t="s">
+      <c r="J30" t="s">
         <v>896</v>
       </c>
-      <c r="H30" t="s">
-        <v>736</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="K30" t="s">
         <v>897</v>
       </c>
-      <c r="J30" t="s">
+      <c r="L30" t="s">
         <v>898</v>
-      </c>
-      <c r="K30" t="s">
-        <v>899</v>
-      </c>
-      <c r="L30" t="s">
-        <v>900</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="B31" t="s">
         <v>195</v>
@@ -9814,27 +9802,27 @@
         <v>28</v>
       </c>
       <c r="E31" t="s">
+        <v>900</v>
+      </c>
+      <c r="F31" t="s">
+        <v>901</v>
+      </c>
+      <c r="G31" t="s">
         <v>902</v>
       </c>
-      <c r="F31" t="s">
+      <c r="H31" t="s">
+        <v>734</v>
+      </c>
+      <c r="I31" t="s">
         <v>903</v>
       </c>
-      <c r="G31" t="s">
+      <c r="J31" t="s">
         <v>904</v>
-      </c>
-      <c r="H31" t="s">
-        <v>736</v>
-      </c>
-      <c r="I31" t="s">
-        <v>905</v>
-      </c>
-      <c r="J31" t="s">
-        <v>906</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B32" t="s">
         <v>195</v>
@@ -9843,22 +9831,22 @@
         <v>4</v>
       </c>
       <c r="E32" t="s">
+        <v>906</v>
+      </c>
+      <c r="F32" t="s">
+        <v>907</v>
+      </c>
+      <c r="G32" t="s">
         <v>908</v>
       </c>
-      <c r="F32" t="s">
+      <c r="H32" t="s">
+        <v>734</v>
+      </c>
+      <c r="I32" t="s">
         <v>909</v>
       </c>
-      <c r="G32" t="s">
+      <c r="J32" t="s">
         <v>910</v>
-      </c>
-      <c r="H32" t="s">
-        <v>736</v>
-      </c>
-      <c r="I32" t="s">
-        <v>911</v>
-      </c>
-      <c r="J32" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -9872,27 +9860,27 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
+        <v>911</v>
+      </c>
+      <c r="F33" t="s">
+        <v>912</v>
+      </c>
+      <c r="G33" t="s">
         <v>913</v>
       </c>
-      <c r="F33" t="s">
+      <c r="H33" t="s">
+        <v>734</v>
+      </c>
+      <c r="I33" t="s">
         <v>914</v>
       </c>
-      <c r="G33" t="s">
+      <c r="J33" t="s">
         <v>915</v>
-      </c>
-      <c r="H33" t="s">
-        <v>736</v>
-      </c>
-      <c r="I33" t="s">
-        <v>916</v>
-      </c>
-      <c r="J33" t="s">
-        <v>917</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="B34" t="s">
         <v>195</v>
@@ -9901,22 +9889,22 @@
         <v>39</v>
       </c>
       <c r="E34" t="s">
+        <v>917</v>
+      </c>
+      <c r="F34" t="s">
+        <v>918</v>
+      </c>
+      <c r="G34" t="s">
         <v>919</v>
       </c>
-      <c r="F34" t="s">
+      <c r="H34" t="s">
+        <v>734</v>
+      </c>
+      <c r="I34" t="s">
         <v>920</v>
       </c>
-      <c r="G34" t="s">
+      <c r="J34" t="s">
         <v>921</v>
-      </c>
-      <c r="H34" t="s">
-        <v>736</v>
-      </c>
-      <c r="I34" t="s">
-        <v>922</v>
-      </c>
-      <c r="J34" t="s">
-        <v>923</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -9930,22 +9918,22 @@
         <v>43</v>
       </c>
       <c r="E35" t="s">
+        <v>922</v>
+      </c>
+      <c r="F35" t="s">
+        <v>923</v>
+      </c>
+      <c r="G35" t="s">
         <v>924</v>
       </c>
-      <c r="F35" t="s">
+      <c r="H35" t="s">
+        <v>734</v>
+      </c>
+      <c r="I35" t="s">
         <v>925</v>
       </c>
-      <c r="G35" t="s">
+      <c r="J35" t="s">
         <v>926</v>
-      </c>
-      <c r="H35" t="s">
-        <v>736</v>
-      </c>
-      <c r="I35" t="s">
-        <v>927</v>
-      </c>
-      <c r="J35" t="s">
-        <v>928</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -9959,27 +9947,27 @@
         <v>40</v>
       </c>
       <c r="E36" t="s">
+        <v>927</v>
+      </c>
+      <c r="F36" t="s">
+        <v>928</v>
+      </c>
+      <c r="G36" t="s">
         <v>929</v>
       </c>
-      <c r="F36" t="s">
+      <c r="H36" t="s">
+        <v>734</v>
+      </c>
+      <c r="I36" t="s">
         <v>930</v>
       </c>
-      <c r="G36" t="s">
+      <c r="J36" t="s">
         <v>931</v>
-      </c>
-      <c r="H36" t="s">
-        <v>736</v>
-      </c>
-      <c r="I36" t="s">
-        <v>932</v>
-      </c>
-      <c r="J36" t="s">
-        <v>933</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="B37" t="s">
         <v>195</v>
@@ -9988,22 +9976,22 @@
         <v>18</v>
       </c>
       <c r="E37" t="s">
+        <v>933</v>
+      </c>
+      <c r="F37" t="s">
+        <v>934</v>
+      </c>
+      <c r="G37" t="s">
         <v>935</v>
       </c>
-      <c r="F37" t="s">
+      <c r="H37" t="s">
+        <v>734</v>
+      </c>
+      <c r="I37" t="s">
         <v>936</v>
       </c>
-      <c r="G37" t="s">
+      <c r="J37" t="s">
         <v>937</v>
-      </c>
-      <c r="H37" t="s">
-        <v>736</v>
-      </c>
-      <c r="I37" t="s">
-        <v>938</v>
-      </c>
-      <c r="J37" t="s">
-        <v>939</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -10017,27 +10005,27 @@
         <v>23</v>
       </c>
       <c r="E38" t="s">
+        <v>938</v>
+      </c>
+      <c r="F38" t="s">
+        <v>939</v>
+      </c>
+      <c r="G38" t="s">
         <v>940</v>
       </c>
-      <c r="F38" t="s">
+      <c r="H38" t="s">
+        <v>734</v>
+      </c>
+      <c r="I38" t="s">
         <v>941</v>
       </c>
-      <c r="G38" t="s">
+      <c r="J38" t="s">
         <v>942</v>
-      </c>
-      <c r="H38" t="s">
-        <v>736</v>
-      </c>
-      <c r="I38" t="s">
-        <v>943</v>
-      </c>
-      <c r="J38" t="s">
-        <v>944</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="B39" t="s">
         <v>195</v>
@@ -10046,27 +10034,27 @@
         <v>45</v>
       </c>
       <c r="E39" t="s">
+        <v>944</v>
+      </c>
+      <c r="F39" t="s">
+        <v>945</v>
+      </c>
+      <c r="G39" t="s">
         <v>946</v>
       </c>
-      <c r="F39" t="s">
+      <c r="H39" t="s">
+        <v>734</v>
+      </c>
+      <c r="I39" t="s">
         <v>947</v>
       </c>
-      <c r="G39" t="s">
+      <c r="J39" t="s">
         <v>948</v>
-      </c>
-      <c r="H39" t="s">
-        <v>736</v>
-      </c>
-      <c r="I39" t="s">
-        <v>949</v>
-      </c>
-      <c r="J39" t="s">
-        <v>950</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="B40" t="s">
         <v>187</v>
@@ -10075,27 +10063,27 @@
         <v>37</v>
       </c>
       <c r="E40" t="s">
+        <v>950</v>
+      </c>
+      <c r="F40" t="s">
+        <v>951</v>
+      </c>
+      <c r="G40" t="s">
         <v>952</v>
       </c>
-      <c r="F40" t="s">
+      <c r="H40" t="s">
+        <v>734</v>
+      </c>
+      <c r="I40" t="s">
         <v>953</v>
       </c>
-      <c r="G40" t="s">
+      <c r="J40" t="s">
         <v>954</v>
-      </c>
-      <c r="H40" t="s">
-        <v>736</v>
-      </c>
-      <c r="I40" t="s">
-        <v>955</v>
-      </c>
-      <c r="J40" t="s">
-        <v>956</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="B41" t="s">
         <v>195</v>
@@ -10104,33 +10092,33 @@
         <v>9</v>
       </c>
       <c r="E41" t="s">
+        <v>956</v>
+      </c>
+      <c r="F41" t="s">
+        <v>957</v>
+      </c>
+      <c r="G41" t="s">
         <v>958</v>
       </c>
-      <c r="F41" t="s">
+      <c r="H41" t="s">
+        <v>734</v>
+      </c>
+      <c r="I41" t="s">
         <v>959</v>
       </c>
-      <c r="G41" t="s">
+      <c r="J41" t="s">
         <v>960</v>
       </c>
-      <c r="H41" t="s">
-        <v>736</v>
-      </c>
-      <c r="I41" t="s">
+      <c r="K41" t="s">
         <v>961</v>
       </c>
-      <c r="J41" t="s">
+      <c r="L41" t="s">
         <v>962</v>
-      </c>
-      <c r="K41" t="s">
-        <v>963</v>
-      </c>
-      <c r="L41" t="s">
-        <v>964</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="B42" t="s">
         <v>187</v>
@@ -10139,27 +10127,27 @@
         <v>35</v>
       </c>
       <c r="E42" t="s">
+        <v>964</v>
+      </c>
+      <c r="F42" t="s">
+        <v>965</v>
+      </c>
+      <c r="G42" t="s">
         <v>966</v>
       </c>
-      <c r="F42" t="s">
+      <c r="H42" t="s">
+        <v>734</v>
+      </c>
+      <c r="I42" t="s">
         <v>967</v>
       </c>
-      <c r="G42" t="s">
+      <c r="J42" t="s">
         <v>968</v>
-      </c>
-      <c r="H42" t="s">
-        <v>736</v>
-      </c>
-      <c r="I42" t="s">
-        <v>969</v>
-      </c>
-      <c r="J42" t="s">
-        <v>970</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="B43" t="s">
         <v>195</v>
@@ -10168,16 +10156,16 @@
         <v>7</v>
       </c>
       <c r="E43" t="s">
+        <v>970</v>
+      </c>
+      <c r="F43" t="s">
+        <v>971</v>
+      </c>
+      <c r="G43" t="s">
         <v>972</v>
       </c>
-      <c r="F43" t="s">
-        <v>973</v>
-      </c>
-      <c r="G43" t="s">
-        <v>974</v>
-      </c>
       <c r="H43" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -10191,22 +10179,22 @@
         <v>19</v>
       </c>
       <c r="E44" t="s">
+        <v>973</v>
+      </c>
+      <c r="F44" t="s">
+        <v>974</v>
+      </c>
+      <c r="G44" t="s">
         <v>975</v>
       </c>
-      <c r="F44" t="s">
+      <c r="H44" t="s">
+        <v>734</v>
+      </c>
+      <c r="I44" t="s">
         <v>976</v>
       </c>
-      <c r="G44" t="s">
+      <c r="J44" t="s">
         <v>977</v>
-      </c>
-      <c r="H44" t="s">
-        <v>736</v>
-      </c>
-      <c r="I44" t="s">
-        <v>978</v>
-      </c>
-      <c r="J44" t="s">
-        <v>979</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -10220,27 +10208,27 @@
         <v>24</v>
       </c>
       <c r="E45" t="s">
+        <v>978</v>
+      </c>
+      <c r="F45" t="s">
+        <v>979</v>
+      </c>
+      <c r="G45" t="s">
         <v>980</v>
       </c>
-      <c r="F45" t="s">
+      <c r="H45" t="s">
+        <v>734</v>
+      </c>
+      <c r="I45" t="s">
         <v>981</v>
       </c>
-      <c r="G45" t="s">
+      <c r="J45" t="s">
         <v>982</v>
-      </c>
-      <c r="H45" t="s">
-        <v>736</v>
-      </c>
-      <c r="I45" t="s">
-        <v>983</v>
-      </c>
-      <c r="J45" t="s">
-        <v>984</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="B46" t="s">
         <v>195</v>
@@ -10249,27 +10237,27 @@
         <v>16</v>
       </c>
       <c r="E46" t="s">
+        <v>984</v>
+      </c>
+      <c r="F46" t="s">
+        <v>985</v>
+      </c>
+      <c r="G46" t="s">
         <v>986</v>
       </c>
-      <c r="F46" t="s">
+      <c r="H46" t="s">
+        <v>734</v>
+      </c>
+      <c r="I46" t="s">
         <v>987</v>
       </c>
-      <c r="G46" t="s">
+      <c r="J46" t="s">
         <v>988</v>
-      </c>
-      <c r="H46" t="s">
-        <v>736</v>
-      </c>
-      <c r="I46" t="s">
-        <v>989</v>
-      </c>
-      <c r="J46" t="s">
-        <v>990</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B47" t="s">
         <v>195</v>
@@ -10278,22 +10266,22 @@
         <v>13</v>
       </c>
       <c r="E47" t="s">
+        <v>990</v>
+      </c>
+      <c r="F47" t="s">
+        <v>991</v>
+      </c>
+      <c r="G47" t="s">
         <v>992</v>
       </c>
-      <c r="F47" t="s">
+      <c r="H47" t="s">
+        <v>734</v>
+      </c>
+      <c r="I47" t="s">
         <v>993</v>
       </c>
-      <c r="G47" t="s">
+      <c r="J47" t="s">
         <v>994</v>
-      </c>
-      <c r="H47" t="s">
-        <v>736</v>
-      </c>
-      <c r="I47" t="s">
-        <v>995</v>
-      </c>
-      <c r="J47" t="s">
-        <v>996</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -10307,27 +10295,27 @@
         <v>41</v>
       </c>
       <c r="E48" t="s">
+        <v>995</v>
+      </c>
+      <c r="F48" t="s">
+        <v>996</v>
+      </c>
+      <c r="G48" t="s">
         <v>997</v>
       </c>
-      <c r="F48" t="s">
+      <c r="H48" t="s">
+        <v>734</v>
+      </c>
+      <c r="I48" t="s">
         <v>998</v>
       </c>
-      <c r="G48" t="s">
+      <c r="J48" t="s">
         <v>999</v>
-      </c>
-      <c r="H48" t="s">
-        <v>736</v>
-      </c>
-      <c r="I48" t="s">
-        <v>1000</v>
-      </c>
-      <c r="J48" t="s">
-        <v>1001</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="B49" t="s">
         <v>195</v>
@@ -10336,27 +10324,27 @@
         <v>17</v>
       </c>
       <c r="E49" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F49" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G49" t="s">
         <v>1003</v>
       </c>
-      <c r="F49" t="s">
+      <c r="H49" t="s">
+        <v>734</v>
+      </c>
+      <c r="I49" t="s">
         <v>1004</v>
       </c>
-      <c r="G49" t="s">
+      <c r="J49" t="s">
         <v>1005</v>
-      </c>
-      <c r="H49" t="s">
-        <v>736</v>
-      </c>
-      <c r="I49" t="s">
-        <v>1006</v>
-      </c>
-      <c r="J49" t="s">
-        <v>1007</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="B50" t="s">
         <v>195</v>
@@ -10365,22 +10353,22 @@
         <v>25</v>
       </c>
       <c r="E50" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F50" t="s">
+        <v>1008</v>
+      </c>
+      <c r="G50" t="s">
         <v>1009</v>
       </c>
-      <c r="F50" t="s">
+      <c r="H50" t="s">
+        <v>734</v>
+      </c>
+      <c r="I50" t="s">
         <v>1010</v>
       </c>
-      <c r="G50" t="s">
+      <c r="J50" t="s">
         <v>1011</v>
-      </c>
-      <c r="H50" t="s">
-        <v>736</v>
-      </c>
-      <c r="I50" t="s">
-        <v>1012</v>
-      </c>
-      <c r="J50" t="s">
-        <v>1013</v>
       </c>
     </row>
   </sheetData>
